--- a/data_output/prism_passive/all_passive_torque at common max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_torque at common max ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18.180990173260099</v>
+        <v>18.180990137947834</v>
       </c>
       <c r="C2">
-        <v>18.108393122819809</v>
+        <v>18.108393077368259</v>
       </c>
       <c r="D2">
-        <v>17.60791201570963</v>
+        <v>17.607911960396795</v>
       </c>
       <c r="E2">
-        <v>22.465157891629058</v>
+        <v>22.465157843330001</v>
       </c>
       <c r="F2">
-        <v>19.3383874678407</v>
+        <v>19.338387388508806</v>
       </c>
       <c r="G2">
-        <v>27.341326152696926</v>
+        <v>27.341326102575884</v>
       </c>
       <c r="H2">
-        <v>28.122828541176698</v>
+        <v>28.122828486598497</v>
       </c>
       <c r="I2">
-        <v>29.134069938897667</v>
+        <v>29.134069882642329</v>
       </c>
       <c r="J2">
-        <v>25.272330073196777</v>
+        <v>25.272330013589425</v>
       </c>
       <c r="K2">
-        <v>24.027625945630369</v>
+        <v>24.027625864176215</v>
       </c>
       <c r="L2">
-        <v>17.061283181686484</v>
+        <v>17.0612831535264</v>
       </c>
       <c r="M2">
-        <v>35.131598260286765</v>
+        <v>35.131598158591174</v>
       </c>
       <c r="N2">
-        <v>23.586065396892998</v>
+        <v>23.586065353827628</v>
       </c>
       <c r="O2">
-        <v>16.046905841886858</v>
+        <v>16.046905822748659</v>
       </c>
       <c r="P2">
-        <v>27.048395447093064</v>
+        <v>27.04839534903925</v>
       </c>
       <c r="Q2">
-        <v>22.18210774996896</v>
+        <v>22.182107707444061</v>
       </c>
       <c r="R2">
-        <v>40.624685714934387</v>
+        <v>40.624685634314496</v>
       </c>
       <c r="S2">
-        <v>51.625005423494464</v>
+        <v>51.625005208918246</v>
       </c>
       <c r="T2">
-        <v>38.754558718598147</v>
+        <v>38.754558672500572</v>
       </c>
       <c r="U2">
-        <v>18.428645846516382</v>
+        <v>18.428645784681578</v>
       </c>
       <c r="V2">
-        <v>38.593578378303505</v>
+        <v>38.593578279691812</v>
       </c>
       <c r="W2">
-        <v>20.470720809047545</v>
+        <v>20.470720767253766</v>
       </c>
       <c r="X2">
-        <v>14.773659871111734</v>
+        <v>14.773659840603859</v>
       </c>
       <c r="Y2">
-        <v>25.878208698266281</v>
+        <v>25.878208648560999</v>
       </c>
       <c r="Z2">
-        <v>13.052702851088162</v>
+        <v>13.05270282960625</v>
       </c>
       <c r="AA2">
-        <v>22.499539338836566</v>
+        <v>22.499539298021944</v>
       </c>
       <c r="AB2">
-        <v>13.531747853754842</v>
+        <v>13.531747834784815</v>
       </c>
       <c r="AC2">
-        <v>13.978715337579672</v>
+        <v>13.978715305837138</v>
       </c>
       <c r="AD2">
-        <v>12.624124833874324</v>
+        <v>12.624124813988335</v>
       </c>
       <c r="AE2">
-        <v>13.176300306382892</v>
+        <v>13.176300266969156</v>
       </c>
       <c r="AF2">
-        <v>27.202398513813435</v>
+        <v>27.202398460684979</v>
       </c>
       <c r="AG2">
-        <v>16.677040884823484</v>
+        <v>16.677040856080961</v>
       </c>
       <c r="AH2">
-        <v>26.051230725490342</v>
+        <v>26.051230689364964</v>
       </c>
       <c r="AI2">
-        <v>26.046215710057425</v>
+        <v>26.046215660093218</v>
       </c>
       <c r="AJ2">
-        <v>32.682592585739322</v>
+        <v>32.682592478830358</v>
       </c>
       <c r="AK2">
-        <v>15.120662123392361</v>
+        <v>15.120662100364997</v>
       </c>
       <c r="AL2">
-        <v>34.098862725970079</v>
+        <v>34.098862680086313</v>
       </c>
       <c r="AM2">
-        <v>32.176170679299211</v>
+        <v>32.176170616964832</v>
       </c>
       <c r="AN2">
-        <v>16.494183839259843</v>
+        <v>16.494183820949246</v>
       </c>
       <c r="AO2">
-        <v>27.371416526370979</v>
+        <v>27.371416475500045</v>
       </c>
       <c r="AP2">
-        <v>22.671704416282207</v>
+        <v>22.671704378845984</v>
       </c>
       <c r="AQ2">
-        <v>30.854222566218233</v>
+        <v>30.854222526483991</v>
       </c>
       <c r="AR2">
-        <v>32.225595172305617</v>
+        <v>32.225595059990908</v>
       </c>
       <c r="AS2">
-        <v>32.533245984727039</v>
+        <v>32.533245916202574</v>
       </c>
       <c r="AT2">
-        <v>14.11202937135255</v>
+        <v>14.112029349630349</v>
       </c>
       <c r="AU2">
-        <v>37.369127754679646</v>
+        <v>37.369127646855446</v>
       </c>
       <c r="AV2">
-        <v>16.105110868295604</v>
+        <v>16.105110839305418</v>
       </c>
       <c r="AW2">
-        <v>11.979585166697726</v>
+        <v>11.979585143050828</v>
       </c>
       <c r="AX2">
-        <v>19.025605446001276</v>
+        <v>19.02560541671291</v>
       </c>
       <c r="AY2">
-        <v>13.904663516854754</v>
+        <v>13.904663490149789</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.116433425617323</v>
+        <v>21.116433382194639</v>
       </c>
       <c r="C3">
-        <v>16.411372494067269</v>
+        <v>16.411372462508812</v>
       </c>
       <c r="D3">
-        <v>16.080990739313005</v>
+        <v>16.080990690953591</v>
       </c>
       <c r="E3">
-        <v>35.886750279539697</v>
+        <v>35.886750084169776</v>
       </c>
       <c r="F3">
-        <v>13.845175635291993</v>
+        <v>13.845175616711744</v>
       </c>
       <c r="G3">
-        <v>32.569378283856501</v>
+        <v>32.56937822998087</v>
       </c>
       <c r="H3">
-        <v>28.604913424312095</v>
+        <v>28.604913341673392</v>
       </c>
       <c r="I3">
-        <v>30.978307431510792</v>
+        <v>30.97830738246218</v>
       </c>
       <c r="J3">
-        <v>20.966170610001697</v>
+        <v>20.966170553018507</v>
       </c>
       <c r="K3">
-        <v>31.995382036507657</v>
+        <v>31.995381960676649</v>
       </c>
       <c r="L3">
-        <v>25.937688693570415</v>
+        <v>25.937688637028277</v>
       </c>
       <c r="M3">
-        <v>37.647058289422844</v>
+        <v>37.648378289131621</v>
       </c>
       <c r="N3">
-        <v>31.51260684883507</v>
+        <v>31.512606790105007</v>
       </c>
       <c r="O3">
-        <v>19.047892443064228</v>
+        <v>19.047892401064932</v>
       </c>
       <c r="P3">
-        <v>32.633615677165238</v>
+        <v>32.633615549775669</v>
       </c>
       <c r="Q3">
-        <v>25.285625818352468</v>
+        <v>25.285625770645204</v>
       </c>
       <c r="R3">
-        <v>22.499311808883199</v>
+        <v>22.499311773699915</v>
       </c>
       <c r="S3">
-        <v>38.072512799198179</v>
+        <v>38.072512670197817</v>
       </c>
       <c r="T3">
-        <v>36.90030360390211</v>
+        <v>36.900303536508247</v>
       </c>
       <c r="U3">
-        <v>23.732474992757236</v>
+        <v>23.732474921765064</v>
       </c>
       <c r="V3">
-        <v>40.353028824575553</v>
+        <v>40.353028663216129</v>
       </c>
       <c r="W3">
-        <v>18.557973016301819</v>
+        <v>18.557972975153092</v>
       </c>
       <c r="X3">
-        <v>17.779737318301358</v>
+        <v>17.779737262694653</v>
       </c>
       <c r="Y3">
-        <v>23.491555612465298</v>
+        <v>23.491555559055165</v>
       </c>
       <c r="Z3">
-        <v>16.47702639080963</v>
+        <v>16.477026362782993</v>
       </c>
       <c r="AA3">
-        <v>20.914173785763349</v>
+        <v>20.914173758115393</v>
       </c>
       <c r="AB3">
-        <v>14.301494225608259</v>
+        <v>14.301494202207843</v>
       </c>
       <c r="AC3">
-        <v>15.006534861383663</v>
+        <v>15.006534835490799</v>
       </c>
       <c r="AD3">
-        <v>19.740141768862749</v>
+        <v>19.740141714349864</v>
       </c>
       <c r="AE3">
-        <v>12.546940776239969</v>
+        <v>12.546940758592843</v>
       </c>
       <c r="AF3">
-        <v>21.063526138030646</v>
+        <v>21.06352609597495</v>
       </c>
       <c r="AG3">
-        <v>14.97927403224244</v>
+        <v>14.979273980286125</v>
       </c>
       <c r="AH3">
-        <v>30.974652116410475</v>
+        <v>30.974652079151021</v>
       </c>
       <c r="AI3">
-        <v>18.066843486786485</v>
+        <v>18.066843453062706</v>
       </c>
       <c r="AJ3">
-        <v>34.887997212189021</v>
+        <v>34.887997114624127</v>
       </c>
       <c r="AK3">
-        <v>17.932283186142712</v>
+        <v>17.932283158819583</v>
       </c>
       <c r="AL3">
-        <v>27.070898005823533</v>
+        <v>27.0708979504723</v>
       </c>
       <c r="AM3">
-        <v>35.623379690471317</v>
+        <v>35.62337962569444</v>
       </c>
       <c r="AN3">
-        <v>15.667787607824593</v>
+        <v>15.667787582764959</v>
       </c>
       <c r="AO3">
-        <v>29.484431523719095</v>
+        <v>29.484431448920997</v>
       </c>
       <c r="AP3">
-        <v>23.374754260642295</v>
+        <v>23.374754226441194</v>
       </c>
       <c r="AQ3">
-        <v>20.676797967847289</v>
+        <v>20.676797936984538</v>
       </c>
       <c r="AR3">
-        <v>33.433851857983441</v>
+        <v>33.43385177505062</v>
       </c>
       <c r="AS3">
-        <v>28.302295276253723</v>
+        <v>28.302295232638741</v>
       </c>
       <c r="AT3">
-        <v>13.976112584117544</v>
+        <v>13.976112560797791</v>
       </c>
       <c r="AU3">
-        <v>38.040658751702644</v>
+        <v>38.040658666658736</v>
       </c>
       <c r="AV3">
-        <v>16.492623669538848</v>
+        <v>16.492623646596066</v>
       </c>
       <c r="AW3">
-        <v>14.180845493413722</v>
+        <v>14.180845468153809</v>
       </c>
       <c r="AX3">
-        <v>24.773943360252463</v>
+        <v>24.773943311640107</v>
       </c>
       <c r="AY3">
-        <v>19.286854527779894</v>
+        <v>19.286854464529206</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_torque at common max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_torque at common max ROM.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>18.180990137947834</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>18.108393077368259</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>17.607911960396795</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>22.465157843330001</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>19.338387388508806</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>27.341326102575884</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>28.122828486598497</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>29.134069882642329</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>25.272330013589425</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>24.027625864176215</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>17.0612831535264</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>35.131598158591174</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>23.586065353827628</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.046905822748659</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>27.04839534903925</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>22.182107707444061</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>40.624685634314496</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>51.625005208918246</v>
@@ -588,55 +477,55 @@
         <v>13.05270282960625</v>
       </c>
       <c r="AA2">
-        <v>22.499539298021944</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>13.531747834784815</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>13.978715305837138</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>12.624124813988335</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>13.176300266969156</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>27.202398460684979</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>16.677040856080961</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>26.051230689364964</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>26.046215660093218</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>32.682592478830358</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>15.120662100364997</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>34.098862680086313</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>32.176170616964832</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>16.494183820949246</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>27.371416475500045</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>22.671704378845984</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>30.854222526483991</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>32.225595059990908</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>21.116433382194639</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>16.411372462508812</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>16.080990690953591</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>35.886750084169776</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>13.845175616711744</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>32.56937822998087</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>28.604913341673392</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>30.97830738246218</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>20.966170553018507</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>31.995381960676649</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>25.937688637028277</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>37.648378289131621</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>31.512606790105007</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>19.047892401064932</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>32.633615549775669</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>25.285625770645204</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>22.499311773699915</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>38.072512670197817</v>
@@ -743,55 +629,55 @@
         <v>16.477026362782993</v>
       </c>
       <c r="AA3">
-        <v>20.914173758115393</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>14.301494202207843</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>15.006534835490799</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>19.740141714349864</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>12.546940758592843</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>21.06352609597495</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>14.979273980286125</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>30.974652079151021</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>18.066843453062706</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>34.887997114624127</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>17.932283158819583</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>27.0708979504723</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>35.62337962569444</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>15.667787582764959</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>29.484431448920997</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>23.374754226441194</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>20.676797936984538</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>33.43385177505062</v>

--- a/data_output/prism_passive/all_passive_torque at common max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_torque at common max ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18.582329346065219</v>
+        <v>16.403585443062106</v>
       </c>
       <c r="C2">
-        <v>18.509578108924146</v>
+        <v>41.524766107136323</v>
       </c>
       <c r="D2">
-        <v>17.998752237662561</v>
+        <v>16.859891899922577</v>
       </c>
       <c r="E2">
-        <v>22.963228502386915</v>
+        <v>31.536779922170894</v>
       </c>
       <c r="F2">
         <v>19.769005948831396</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.584900670813479</v>
+        <v>19.470153128188006</v>
       </c>
       <c r="C3">
-        <v>16.77657616747214</v>
+        <v>22.999451700416447</v>
       </c>
       <c r="D3">
-        <v>16.437429889618048</v>
+        <v>16.016676821730766</v>
       </c>
       <c r="E3">
-        <v>36.696501670446004</v>
+        <v>19.753652281622227</v>
       </c>
       <c r="F3">
         <v>14.150623293688531</v>

--- a/data_output/prism_passive/all_passive_torque at common max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_torque at common max ROM.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18.582329346065219</v>
+        <v>24.108488991975815</v>
       </c>
       <c r="C2">
-        <v>18.509578108924146</v>
+        <v>16.403585443062106</v>
       </c>
       <c r="D2">
-        <v>17.998752237662561</v>
+        <v>32.89271844946753</v>
       </c>
       <c r="E2">
-        <v>22.963228502386915</v>
+        <v>16.859891899922577</v>
       </c>
       <c r="F2">
         <v>19.769005948831396</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.584900670813479</v>
+        <v>32.207610945824023</v>
       </c>
       <c r="C3">
-        <v>16.77657616747214</v>
+        <v>19.470153128188006</v>
       </c>
       <c r="D3">
-        <v>16.437429889618048</v>
+        <v>36.412500352069117</v>
       </c>
       <c r="E3">
-        <v>36.696501670446004</v>
+        <v>16.016676821730766</v>
       </c>
       <c r="F3">
         <v>14.150623293688531</v>

--- a/data_output/prism_passive/all_passive_torque at common max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_torque at common max ROM.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>18.582329309917327</v>
+      </c>
+      <c r="C2">
+        <v>18.509578062585295</v>
+      </c>
+      <c r="D2">
+        <v>17.99875218111352</v>
+      </c>
+      <c r="E2">
+        <v>22.963228453104776</v>
+      </c>
+      <c r="F2">
+        <v>19.769005867873769</v>
+      </c>
+      <c r="G2">
+        <v>27.952608216105705</v>
+      </c>
+      <c r="H2">
+        <v>28.741058723776792</v>
+      </c>
+      <c r="I2">
+        <v>29.781385050522108</v>
+      </c>
+      <c r="J2">
+        <v>25.834155493437009</v>
+      </c>
+      <c r="K2">
+        <v>24.563836273738541</v>
+      </c>
+      <c r="L2">
+        <v>17.440766210240035</v>
+      </c>
+      <c r="M2">
+        <v>35.917168100624089</v>
+      </c>
+      <c r="N2">
         <v>24.108488991975815</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>16.403585443062106</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>27.64764486729003</v>
+      </c>
+      <c r="Q2">
+        <v>22.675434125643942</v>
+      </c>
+      <c r="R2">
+        <v>41.524766107136323</v>
+      </c>
+      <c r="S2">
+        <v>52.770456767526497</v>
+      </c>
+      <c r="T2">
+        <v>39.615157037178783</v>
+      </c>
+      <c r="U2">
+        <v>18.838296206087449</v>
+      </c>
+      <c r="V2">
+        <v>39.45290000248351</v>
+      </c>
+      <c r="W2">
+        <v>20.92555251427277</v>
+      </c>
+      <c r="X2">
+        <v>15.10015837006766</v>
+      </c>
+      <c r="Y2">
+        <v>26.454584929301436</v>
+      </c>
+      <c r="Z2">
+        <v>13.342175918867461</v>
+      </c>
+      <c r="AA2">
+        <v>22.991277375542342</v>
+      </c>
+      <c r="AB2">
+        <v>13.83120094842865</v>
+      </c>
+      <c r="AC2">
+        <v>14.289272346498885</v>
+      </c>
+      <c r="AD2">
+        <v>12.9057162159135</v>
+      </c>
+      <c r="AE2">
+        <v>13.468352217874004</v>
+      </c>
+      <c r="AF2">
+        <v>27.804724952629158</v>
+      </c>
+      <c r="AG2">
+        <v>17.045917508178039</v>
+      </c>
+      <c r="AH2">
+        <v>26.627318221176665</v>
+      </c>
+      <c r="AI2">
+        <v>26.625297716735549</v>
+      </c>
+      <c r="AJ2">
+        <v>33.40826211252601</v>
+      </c>
+      <c r="AK2">
+        <v>15.457191682604124</v>
+      </c>
+      <c r="AL2">
+        <v>34.852749530984767</v>
+      </c>
+      <c r="AM2">
         <v>32.89271844946753</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>16.859891899922577</v>
       </c>
-      <c r="F2">
-        <v>19.769005948831396</v>
-      </c>
-      <c r="G2">
-        <v>27.952608267340121</v>
-      </c>
-      <c r="H2">
-        <v>28.741058779682927</v>
-      </c>
-      <c r="I2">
-        <v>29.781385107930756</v>
-      </c>
-      <c r="J2">
-        <v>25.834155554290998</v>
-      </c>
-      <c r="K2">
-        <v>24.563836356891755</v>
-      </c>
-      <c r="L2">
-        <v>17.440766239038361</v>
-      </c>
-      <c r="M2">
-        <v>35.91716820402349</v>
-      </c>
-      <c r="N2">
-        <v>24.108489036067898</v>
-      </c>
-      <c r="O2">
-        <v>16.40358546305983</v>
-      </c>
-      <c r="P2">
-        <v>27.6476449676031</v>
-      </c>
-      <c r="Q2">
-        <v>22.675434169127566</v>
-      </c>
-      <c r="R2">
-        <v>41.524766189193684</v>
-      </c>
-      <c r="S2">
-        <v>52.77045698606549</v>
-      </c>
-      <c r="T2">
-        <v>39.615157082993704</v>
-      </c>
-      <c r="U2">
-        <v>18.838296269415679</v>
-      </c>
-      <c r="V2">
-        <v>39.452900103404374</v>
-      </c>
-      <c r="W2">
-        <v>20.925552557002678</v>
-      </c>
-      <c r="X2">
-        <v>15.100158401208128</v>
-      </c>
-      <c r="Y2">
-        <v>26.454584980101696</v>
-      </c>
-      <c r="Z2">
-        <v>13.342175940781411</v>
-      </c>
-      <c r="AA2">
-        <v>22.991277417427899</v>
-      </c>
-      <c r="AB2">
-        <v>13.831200967864902</v>
-      </c>
-      <c r="AC2">
-        <v>14.289272378924757</v>
-      </c>
-      <c r="AD2">
-        <v>12.905716236258272</v>
-      </c>
-      <c r="AE2">
-        <v>13.468352258171779</v>
-      </c>
-      <c r="AF2">
-        <v>27.804725006803483</v>
-      </c>
-      <c r="AG2">
-        <v>17.045917537541118</v>
-      </c>
-      <c r="AH2">
-        <v>26.627318258333251</v>
-      </c>
-      <c r="AI2">
-        <v>26.625297767851176</v>
-      </c>
-      <c r="AJ2">
-        <v>33.408262221572443</v>
-      </c>
-      <c r="AK2">
-        <v>15.457191706318619</v>
-      </c>
-      <c r="AL2">
-        <v>34.852749577762296</v>
-      </c>
-      <c r="AM2">
-        <v>32.892718513095076</v>
-      </c>
-      <c r="AN2">
-        <v>16.859891918642649</v>
-      </c>
       <c r="AO2">
-        <v>27.982279303468687</v>
+        <v>27.982279251567789</v>
       </c>
       <c r="AP2">
-        <v>22.221677786339693</v>
+        <v>22.221677751734557</v>
       </c>
       <c r="AQ2">
-        <v>31.536779962904092</v>
+        <v>31.536779922170894</v>
       </c>
       <c r="AR2">
-        <v>32.941968985179578</v>
+        <v>32.941968870220286</v>
       </c>
       <c r="AS2">
-        <v>33.255537786159223</v>
+        <v>33.255537716321008</v>
       </c>
       <c r="AT2">
-        <v>14.425000054422213</v>
+        <v>14.425000032262952</v>
       </c>
       <c r="AU2">
-        <v>38.202120300347083</v>
+        <v>38.202120190024331</v>
       </c>
       <c r="AV2">
-        <v>16.462099491083531</v>
+        <v>16.462099461402108</v>
       </c>
       <c r="AW2">
-        <v>12.247328619864033</v>
+        <v>12.247328595693199</v>
       </c>
       <c r="AX2">
-        <v>19.445670707981719</v>
+        <v>19.445670678143632</v>
       </c>
       <c r="AY2">
-        <v>14.213128374236668</v>
+        <v>14.213128346979806</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>21.58490062638904</v>
+      </c>
+      <c r="C3">
+        <v>16.776576135261752</v>
+      </c>
+      <c r="D3">
+        <v>16.437429840159481</v>
+      </c>
+      <c r="E3">
+        <v>36.69650147208889</v>
+      </c>
+      <c r="F3">
+        <v>14.150623274583126</v>
+      </c>
+      <c r="G3">
+        <v>33.282444246309105</v>
+      </c>
+      <c r="H3">
+        <v>29.239665867442252</v>
+      </c>
+      <c r="I3">
+        <v>31.666425188375452</v>
+      </c>
+      <c r="J3">
+        <v>21.431728787652379</v>
+      </c>
+      <c r="K3">
+        <v>32.710287582012818</v>
+      </c>
+      <c r="L3">
+        <v>26.515553140700334</v>
+      </c>
+      <c r="M3">
+        <v>38.480710487301742</v>
+      </c>
+      <c r="N3">
         <v>32.207610945824023</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>19.470153128188006</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>33.359861478946414</v>
+      </c>
+      <c r="Q3">
+        <v>25.846932605958049</v>
+      </c>
+      <c r="R3">
+        <v>22.999451700416447</v>
+      </c>
+      <c r="S3">
+        <v>38.913411305986521</v>
+      </c>
+      <c r="T3">
+        <v>37.722645815845461</v>
+      </c>
+      <c r="U3">
+        <v>24.259590520992251</v>
+      </c>
+      <c r="V3">
+        <v>41.251243488630841</v>
+      </c>
+      <c r="W3">
+        <v>18.914613275585747</v>
+      </c>
+      <c r="X3">
+        <v>18.171695711905915</v>
+      </c>
+      <c r="Y3">
+        <v>24.012875551504592</v>
+      </c>
+      <c r="Z3">
+        <v>16.841736136598485</v>
+      </c>
+      <c r="AA3">
+        <v>21.3826582386199</v>
+      </c>
+      <c r="AB3">
+        <v>14.618804115589787</v>
+      </c>
+      <c r="AC3">
+        <v>15.339718319601708</v>
+      </c>
+      <c r="AD3">
+        <v>20.184941968257451</v>
+      </c>
+      <c r="AE3">
+        <v>12.82276815739929</v>
+      </c>
+      <c r="AF3">
+        <v>21.52833231204308</v>
+      </c>
+      <c r="AG3">
+        <v>15.312231415670619</v>
+      </c>
+      <c r="AH3">
+        <v>26.726618117949428</v>
+      </c>
+      <c r="AI3">
+        <v>18.465424084173865</v>
+      </c>
+      <c r="AJ3">
+        <v>35.66128461197529</v>
+      </c>
+      <c r="AK3">
+        <v>18.328972031516546</v>
+      </c>
+      <c r="AL3">
+        <v>27.674387945367801</v>
+      </c>
+      <c r="AM3">
         <v>36.412500352069117</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>16.016676821730766</v>
       </c>
-      <c r="F3">
-        <v>14.150623293688531</v>
-      </c>
-      <c r="G3">
-        <v>33.282444302025709</v>
-      </c>
-      <c r="H3">
-        <v>29.239665951774342</v>
-      </c>
-      <c r="I3">
-        <v>31.666425238250614</v>
-      </c>
-      <c r="J3">
-        <v>21.431728845572817</v>
-      </c>
-      <c r="K3">
-        <v>32.710287659387298</v>
-      </c>
-      <c r="L3">
-        <v>26.515553198405275</v>
-      </c>
-      <c r="M3">
-        <v>38.479361837754887</v>
-      </c>
-      <c r="N3">
-        <v>32.207611005680661</v>
-      </c>
-      <c r="O3">
-        <v>19.470153171142464</v>
-      </c>
-      <c r="P3">
-        <v>33.35986160893669</v>
-      </c>
-      <c r="Q3">
-        <v>25.846932654995666</v>
-      </c>
-      <c r="R3">
-        <v>22.999451736373839</v>
-      </c>
-      <c r="S3">
-        <v>38.913411438045067</v>
-      </c>
-      <c r="T3">
-        <v>37.722645884617556</v>
-      </c>
-      <c r="U3">
-        <v>24.259590593440944</v>
-      </c>
-      <c r="V3">
-        <v>41.251243653478546</v>
-      </c>
-      <c r="W3">
-        <v>18.91461332301094</v>
-      </c>
-      <c r="X3">
-        <v>18.171695768909768</v>
-      </c>
-      <c r="Y3">
-        <v>24.01287560608014</v>
-      </c>
-      <c r="Z3">
-        <v>16.841736165127234</v>
-      </c>
-      <c r="AA3">
-        <v>21.38265826677063</v>
-      </c>
-      <c r="AB3">
-        <v>14.618804139518645</v>
-      </c>
-      <c r="AC3">
-        <v>15.339718346084169</v>
-      </c>
-      <c r="AD3">
-        <v>20.184942024425883</v>
-      </c>
-      <c r="AE3">
-        <v>12.822768175458814</v>
-      </c>
-      <c r="AF3">
-        <v>21.528332355082924</v>
-      </c>
-      <c r="AG3">
-        <v>15.312231468841778</v>
-      </c>
-      <c r="AH3">
-        <v>26.726618153310415</v>
-      </c>
-      <c r="AI3">
-        <v>18.465424118782856</v>
-      </c>
-      <c r="AJ3">
-        <v>35.6612847116102</v>
-      </c>
-      <c r="AK3">
-        <v>18.328972059455591</v>
-      </c>
-      <c r="AL3">
-        <v>27.674388001942344</v>
-      </c>
-      <c r="AM3">
-        <v>36.412500418529049</v>
-      </c>
-      <c r="AN3">
-        <v>16.016676847318308</v>
-      </c>
       <c r="AO3">
-        <v>30.134282967473144</v>
+        <v>30.134282890986857</v>
       </c>
       <c r="AP3">
-        <v>23.891706871866266</v>
+        <v>23.891706836753826</v>
       </c>
       <c r="AQ3">
-        <v>19.753652315674373</v>
+        <v>19.753652281622227</v>
       </c>
       <c r="AR3">
-        <v>34.175550590003077</v>
+        <v>34.175550505329959</v>
       </c>
       <c r="AS3">
-        <v>28.930738303614145</v>
+        <v>28.930738258988232</v>
       </c>
       <c r="AT3">
-        <v>14.287500009144173</v>
+        <v>14.287499985362315</v>
       </c>
       <c r="AU3">
-        <v>38.880554845925701</v>
+        <v>38.880554759449119</v>
       </c>
       <c r="AV3">
-        <v>16.859432181042077</v>
+        <v>16.859432157595176</v>
       </c>
       <c r="AW3">
-        <v>14.496973888038021</v>
+        <v>14.496973862257533</v>
       </c>
       <c r="AX3">
-        <v>25.325162989070098</v>
+        <v>25.32516293933514</v>
       </c>
       <c r="AY3">
-        <v>19.714573890716643</v>
+        <v>19.714573826088412</v>
       </c>
     </row>
   </sheetData>
